--- a/Eva/Zaniatie 5/TCs 29 May.xlsx
+++ b/Eva/Zaniatie 5/TCs 29 May.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chafik Egho\Desktop\Testing 29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chafik Egho\Desktop\Testing 29\softwaretesting\Eva\Zaniatie 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PTC001" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="PTC003" sheetId="4" r:id="rId3"/>
     <sheet name="NTC001" sheetId="2" r:id="rId4"/>
     <sheet name="NTC002" sheetId="6" r:id="rId5"/>
+    <sheet name="NTC002 (2)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -518,6 +519,49 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1461,6 +1505,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
